--- a/biology/Médecine/Paul_Cazeneuve/Paul_Cazeneuve.xlsx
+++ b/biology/Médecine/Paul_Cazeneuve/Paul_Cazeneuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Cazeneuve, né le 10 janvier 1852 à Lyon et décédé le 30 mars 1934 à Paris, est un homme politique français de la Troisième République.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pharmacien de profession, il est professeur de chimie organique à la Faculté de médecine de Lyon dès 1882.
 Radical-socialiste, il est élu conseiller général en 1894 avant de devenir président du Conseil général du Rhône de 1901 à 1920. Élu député radical de La Guillotière en 1902, il quitte la Chambre des députés à la suite de son élection comme sénateur du Rhône le 3 janvier 1909. Le 10 janvier 1920, n'étant pas réélu, il quitte la vie politique.
-Il est l'un des six vice-présidents du comité exécutif du Parti républicain, radical et radical-socialiste en 1904[1].
+Il est l'un des six vice-présidents du comité exécutif du Parti républicain, radical et radical-socialiste en 1904.
 Le 18 juin 1929, il prononce un discours sur les sanatoriums des Petites Roches (de Saint-Hilaire du Touvet) devant l’Académie de Médecine.
 </t>
         </is>
